--- a/SDET4.xlsx
+++ b/SDET4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15330" windowHeight="6420"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15585" windowHeight="6420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:O20"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Aditya12</t>
   </si>
@@ -32,6 +32,42 @@
   </si>
   <si>
     <t>TC_001</t>
+  </si>
+  <si>
+    <t>UN</t>
+  </si>
+  <si>
+    <t>PWD</t>
+  </si>
+  <si>
+    <t>UN1</t>
+  </si>
+  <si>
+    <t>UN2</t>
+  </si>
+  <si>
+    <t>UN3</t>
+  </si>
+  <si>
+    <t>UN4</t>
+  </si>
+  <si>
+    <t>UN5</t>
+  </si>
+  <si>
+    <t>PWD1</t>
+  </si>
+  <si>
+    <t>PWD2</t>
+  </si>
+  <si>
+    <t>PWD3</t>
+  </si>
+  <si>
+    <t>PWD4</t>
+  </si>
+  <si>
+    <t>PWD5</t>
   </si>
 </sst>
 </file>
@@ -67,8 +103,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -365,8 +402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -403,12 +440,85 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="C7" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
